--- a/public/assets/FokusSpgPasarImport.xlsx
+++ b/public/assets/FokusSpgPasarImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Ampps\www\SASA\sasa_mtcgtc\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6337F180-9F67-4795-8C13-C48CBBB87362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8C799-5018-4A8E-9B0C-DD7AE058BFC8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>PRODUCT</t>
+    <t>NIK</t>
   </si>
   <si>
-    <t>MONTH FROM</t>
+    <t>SKU</t>
   </si>
   <si>
-    <t>MONTH UNTIL</t>
+    <t>FROM</t>
   </si>
   <si>
-    <t>EMPLOYEE</t>
+    <t>UNTIL</t>
   </si>
 </sst>
 </file>
@@ -48,6 +48,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,7 +361,9 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -369,16 +372,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
